--- a/financial_models/opportunities/1405.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B22E2AA9-C156-6042-B27F-62B3522F9516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB10D1A1-2A57-4381-9312-7415996BB07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -828,18 +817,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1292,7 +1281,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="215">
@@ -1348,8 +1337,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1372,14 +1361,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1404,7 +1393,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1421,7 +1410,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1429,7 +1418,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1476,7 +1465,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1550,7 +1539,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1626,7 +1615,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1637,16 +1626,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1706,7 +1695,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1715,10 +1704,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1733,23 +1722,23 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1763,7 +1752,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1776,20 +1765,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2112,19 +2101,19 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2133,7 +2122,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2148,7 +2137,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>217</v>
       </c>
@@ -2161,13 +2150,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="169">
-        <v>71.650001525878906</v>
+        <v>73.150001525878906</v>
       </c>
       <c r="H3" s="171" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="35" t="s">
         <v>218</v>
       </c>
@@ -2185,7 +2174,7 @@
       <c r="H4" s="207"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2199,13 +2188,13 @@
       </c>
       <c r="G5" s="199">
         <f>G3*G4/1000000</f>
-        <v>9349.0328480496755</v>
+        <v>9544.7557925496749</v>
       </c>
       <c r="H5" s="199"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2229,7 +2218,7 @@
       <c r="H6" s="200"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>215</v>
       </c>
@@ -2244,15 +2233,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="170">
-        <v>1.0919816493988037</v>
+        <v>1.0876400073369343</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="177" t="s">
         <v>213</v>
       </c>
@@ -2260,7 +2249,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2271,7 +2260,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
@@ -2285,7 +2274,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2297,8 +2286,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
@@ -2309,7 +2298,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2320,7 +2309,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="146" t="s">
         <v>208</v>
       </c>
@@ -2334,7 +2323,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>201</v>
       </c>
@@ -2343,8 +2332,8 @@
       </c>
       <c r="D17" s="185"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="182" t="s">
         <v>204</v>
       </c>
@@ -2357,7 +2346,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="174" t="s">
         <v>185</v>
       </c>
@@ -2368,7 +2357,7 @@
       <c r="F20" s="94"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="174" t="s">
         <v>186</v>
       </c>
@@ -2379,7 +2368,7 @@
       <c r="F21" s="94"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="174" t="s">
         <v>187</v>
       </c>
@@ -2391,7 +2380,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="174" t="s">
         <v>188</v>
       </c>
@@ -2404,10 +2393,10 @@
       </c>
       <c r="G23" s="184">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.66554704218651717</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.6821926865948903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="174" t="s">
         <v>189</v>
       </c>
@@ -2420,10 +2409,10 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>-1.9516091381621328E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1.9039894665116953E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="174" t="s">
         <v>214</v>
       </c>
@@ -2439,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="176" t="s">
         <v>191</v>
       </c>
@@ -2455,8 +2444,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2474,919 +2463,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>2.3445654606914053</v>
+        <v>2.3473500452370413</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>0.89652025926984846</v>
+        <v>0.8643731481393</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>0.71721620741587877</v>
+        <v>0.69149851851143995</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3450,7 +3439,7 @@
       <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3458,7 +3447,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3466,7 +3455,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3483,7 +3472,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3509,13 +3498,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="139" t="s">
         <v>146</v>
@@ -3565,7 +3554,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3587,7 +3576,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3638,7 +3627,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3662,7 +3651,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3713,7 +3702,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3737,7 +3726,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3788,7 +3777,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3806,7 +3795,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3857,7 +3846,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3875,7 +3864,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3893,7 +3882,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3911,7 +3900,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3933,7 +3922,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -3951,7 +3940,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4002,7 +3991,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4053,7 +4042,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4104,7 +4093,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4155,7 +4144,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4206,7 +4195,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="138" t="s">
         <v>147</v>
@@ -4257,7 +4246,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4308,7 +4297,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4329,7 +4318,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4350,7 +4339,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4371,7 +4360,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4392,7 +4381,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4413,7 +4402,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4434,7 +4423,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4455,7 +4444,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4506,7 +4495,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4527,7 +4516,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4548,7 +4537,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4569,7 +4558,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4620,7 +4609,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>171</v>
@@ -4671,7 +4660,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4689,7 +4678,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4740,7 +4729,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4791,7 +4780,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4842,7 +4831,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4893,7 +4882,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -4944,7 +4933,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -4995,7 +4984,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5046,7 +5035,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5064,7 +5053,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5115,7 +5104,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5166,7 +5155,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5183,7 +5172,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5233,7 +5222,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5283,7 +5272,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5333,7 +5322,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5383,1260 +5372,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6675,7 +6664,7 @@
       <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -6684,11 +6673,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6704,7 +6693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6727,7 +6716,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6743,7 +6732,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6758,18 +6747,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>4075997.5338229183</v>
+        <v>4059791.6549542905</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.68314444549988518</v>
+        <v>0.68440424084874651</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6783,14 +6772,14 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>34.111339280889005</v>
+        <v>33.840629952669467</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -6806,13 +6795,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6831,7 +6820,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6856,7 +6845,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6881,7 +6870,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6904,7 +6893,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -6927,7 +6916,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -6948,7 +6937,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -6971,7 +6960,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -6989,7 +6978,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7009,7 +6998,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7028,7 +7017,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7048,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7070,7 +7059,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7089,7 +7078,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7111,7 +7100,7 @@
         <v>2867112</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7120,7 +7109,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7142,7 +7131,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7171,7 +7160,7 @@
         <v>2.0221788132366587</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7204,7 +7193,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7237,7 +7226,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7266,7 +7255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7278,7 +7267,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7297,7 +7286,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7319,7 +7308,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7339,7 +7328,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7362,7 +7351,7 @@
       <c r="I33" s="144"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7387,7 +7376,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7408,7 +7397,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7432,7 +7421,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7454,7 +7443,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7473,7 +7462,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7490,7 +7479,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7509,7 +7498,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7528,7 +7517,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7552,7 +7541,7 @@
         <v>153937</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7561,7 +7550,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7580,7 +7569,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7599,7 +7588,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7629,7 +7618,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7659,7 +7648,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7685,7 +7674,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7712,20 +7701,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7742,7 +7731,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7763,7 +7752,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7772,7 +7761,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7783,7 +7772,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7798,7 +7787,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7813,7 +7802,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7827,7 +7816,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7836,7 +7825,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7850,7 +7839,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7871,7 +7860,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -7892,7 +7881,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -7913,7 +7902,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="145" t="s">
         <v>164</v>
       </c>
@@ -7928,7 +7917,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -7949,7 +7938,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -7959,7 +7948,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -7973,7 +7962,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -7994,7 +7983,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="145" t="s">
         <v>165</v>
       </c>
@@ -8009,7 +7998,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8030,7 +8019,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8044,7 +8033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -8058,7 +8047,7 @@
       </c>
       <c r="F73" s="212"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8073,7 +8062,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8094,7 +8083,7 @@
         <v>0.8448760372568398</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8109,7 +8098,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8130,7 +8119,7 @@
         <v>0.18023840312844694</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8145,7 +8134,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8166,7 +8155,7 @@
         <v>1.7912194354438221E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8187,7 +8176,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8211,7 +8200,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8231,7 +8220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8252,7 +8241,7 @@
         <v>-7.3026634739724955E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8263,7 +8252,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8284,7 +8273,7 @@
         <v>-5.4769976054793723E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>174</v>
       </c>
@@ -8299,7 +8288,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>175</v>
       </c>
@@ -8319,11 +8308,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8333,7 +8322,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
@@ -8344,7 +8333,7 @@
       <c r="G90" s="94"/>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
@@ -8357,11 +8346,11 @@
       <c r="E91" s="211"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.9516091381621328E-2</v>
+        <v>-1.9039894665116953E-2</v>
       </c>
       <c r="H91" s="195"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
@@ -8378,14 +8367,14 @@
       </c>
       <c r="F92" s="193">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>-13.186009595655092</v>
+        <v>-13.218061303086122</v>
       </c>
       <c r="H92" s="195"/>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H93" s="24"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8403,25 +8392,25 @@
       </c>
       <c r="H94" s="24"/>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>-1232351.8815948402</v>
+        <v>-1230435.7494098877</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>-9.4446148207843894</v>
+        <v>-9.4299297858500779</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>-7.1587884025456834</v>
+        <v>-7.14765750311002</v>
       </c>
       <c r="H95" s="24"/>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
@@ -8437,17 +8426,17 @@
       <c r="F96" s="137"/>
       <c r="H96" s="24"/>
     </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>1325935.6602338792</v>
+        <v>1320663.8335168522</v>
       </c>
       <c r="D97" s="197">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>10.161831028200268</v>
+        <v>10.121428304361517</v>
       </c>
       <c r="E97" s="198"/>
       <c r="F97" s="156" t="s">
@@ -8455,32 +8444,32 @@
       </c>
       <c r="H97" s="24"/>
     </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>93583.778639039025</v>
+        <v>90228.084106964525</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>0.71721620741587877</v>
+        <v>0.69149851851143995</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>2.3445654606914053</v>
+        <v>2.3473500452370413</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>0.89652025926984846</v>
+        <v>0.8643731481393</v>
       </c>
       <c r="H98" s="24"/>
     </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H99" s="24"/>
     </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8497,7 +8486,7 @@
       </c>
       <c r="H100" s="24"/>
     </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
@@ -8521,10 +8510,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H102" s="24"/>
     </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>225</v>
       </c>
@@ -8541,28 +8530,28 @@
       </c>
       <c r="H103" s="24"/>
     </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>46791.889319519512</v>
+        <v>45114.042053482262</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>0.35860810370793939</v>
+        <v>0.34574925925571998</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>0.26895607778095454</v>
+        <v>0.25931194444178995</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>0.44826012963492423</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.43218657406965</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>

--- a/financial_models/opportunities/1405.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB10D1A1-2A57-4381-9312-7415996BB07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A525B535-7C08-964F-A225-A39443368E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="740" windowWidth="12700" windowHeight="7640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -817,18 +828,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1281,7 +1292,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="215">
@@ -1337,8 +1348,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1361,14 +1372,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1393,7 +1404,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1410,7 +1421,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1418,7 +1429,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1465,7 +1476,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1539,7 +1550,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1615,7 +1626,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1626,16 +1637,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1695,7 +1706,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1704,10 +1715,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1722,23 +1733,23 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1752,7 +1763,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1765,20 +1776,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2101,19 +2112,19 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2122,7 +2133,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2137,7 +2148,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>217</v>
       </c>
@@ -2150,13 +2161,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="169">
-        <v>73.150001525878906</v>
+        <v>73.400001525878906</v>
       </c>
       <c r="H3" s="171" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>218</v>
       </c>
@@ -2174,7 +2185,7 @@
       <c r="H4" s="207"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2188,13 +2199,13 @@
       </c>
       <c r="G5" s="199">
         <f>G3*G4/1000000</f>
-        <v>9544.7557925496749</v>
+        <v>9577.3762832996745</v>
       </c>
       <c r="H5" s="199"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2218,7 +2229,7 @@
       <c r="H6" s="200"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="93" t="s">
         <v>215</v>
       </c>
@@ -2233,15 +2244,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="170">
-        <v>1.0876400073369343</v>
+        <v>1.0866400003433228</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="177" t="s">
         <v>213</v>
       </c>
@@ -2249,7 +2260,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2260,7 +2271,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
@@ -2274,7 +2285,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2286,8 +2297,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
@@ -2298,7 +2309,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2309,7 +2320,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="146" t="s">
         <v>208</v>
       </c>
@@ -2323,7 +2334,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="94" t="s">
         <v>201</v>
       </c>
@@ -2332,8 +2343,8 @@
       </c>
       <c r="D17" s="185"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="182" t="s">
         <v>204</v>
       </c>
@@ -2346,7 +2357,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="174" t="s">
         <v>185</v>
       </c>
@@ -2357,7 +2368,7 @@
       <c r="F20" s="94"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="174" t="s">
         <v>186</v>
       </c>
@@ -2368,7 +2379,7 @@
       <c r="F21" s="94"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="174" t="s">
         <v>187</v>
       </c>
@@ -2380,7 +2391,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="174" t="s">
         <v>188</v>
       </c>
@@ -2393,10 +2404,10 @@
       </c>
       <c r="G23" s="184">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.6821926865948903</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.68515412223032834</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="174" t="s">
         <v>189</v>
       </c>
@@ -2409,10 +2420,10 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>-1.9039894665116953E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>-1.8957598695893682E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="174" t="s">
         <v>214</v>
       </c>
@@ -2428,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="176" t="s">
         <v>191</v>
       </c>
@@ -2444,8 +2455,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2463,919 +2474,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>2.3473500452370413</v>
+        <v>2.3490774434310842</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>0.8643731481393</v>
+        <v>0.85863771225969499</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>0.69149851851143995</v>
+        <v>0.68691016980775599</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3439,7 +3450,7 @@
       <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3447,7 +3458,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3455,7 +3466,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3472,7 +3483,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3498,13 +3509,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="139" t="s">
         <v>146</v>
@@ -3554,7 +3565,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3576,7 +3587,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3627,7 +3638,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3651,7 +3662,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3702,7 +3713,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3726,7 +3737,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3777,7 +3788,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3795,7 +3806,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3846,7 +3857,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3864,7 +3875,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3882,7 +3893,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3900,7 +3911,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3922,7 +3933,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -3940,7 +3951,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -3991,7 +4002,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4042,7 +4053,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4093,7 +4104,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4144,7 +4155,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4195,7 +4206,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="138" t="s">
         <v>147</v>
@@ -4246,7 +4257,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4297,7 +4308,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4318,7 +4329,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4339,7 +4350,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4360,7 +4371,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4381,7 +4392,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4402,7 +4413,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4423,7 +4434,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4444,7 +4455,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4495,7 +4506,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4516,7 +4527,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4537,7 +4548,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4558,7 +4569,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4609,7 +4620,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>171</v>
@@ -4660,7 +4671,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4678,7 +4689,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4729,7 +4740,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4780,7 +4791,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4831,7 +4842,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4882,7 +4893,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -4933,7 +4944,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -4984,7 +4995,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5035,7 +5046,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5053,7 +5064,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5104,7 +5115,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5155,7 +5166,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5172,7 +5183,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5222,7 +5233,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5272,7 +5283,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5322,7 +5333,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5372,1260 +5383,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6664,7 +6675,7 @@
       <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -6673,11 +6684,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6693,7 +6704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6716,7 +6727,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6732,7 +6743,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6747,18 +6758,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>4059791.6549542905</v>
+        <v>4056058.9676495078</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.68440424084874651</v>
+        <v>0.68469440851835828</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6772,14 +6783,14 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>33.840629952669467</v>
+        <v>33.778430494636247</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -6795,13 +6806,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6820,7 +6831,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6845,7 +6856,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6870,7 +6881,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6893,7 +6904,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -6916,7 +6927,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -6937,7 +6948,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -6960,7 +6971,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -6978,7 +6989,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -6998,7 +7009,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7017,7 +7028,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7037,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7059,7 +7070,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7078,7 +7089,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7100,7 +7111,7 @@
         <v>2867112</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7109,7 +7120,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7131,7 +7142,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7160,7 +7171,7 @@
         <v>2.0221788132366587</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7193,7 +7204,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7226,7 +7237,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7255,7 +7266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7267,7 +7278,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7286,7 +7297,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7308,7 +7319,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7328,7 +7339,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7351,7 +7362,7 @@
       <c r="I33" s="144"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7376,7 +7387,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7397,7 +7408,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7421,7 +7432,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7443,7 +7454,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7462,7 +7473,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7479,7 +7490,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7498,7 +7509,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7517,7 +7528,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7541,7 +7552,7 @@
         <v>153937</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7550,7 +7561,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7569,7 +7580,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7588,7 +7599,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7618,7 +7629,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7648,7 +7659,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7674,7 +7685,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7701,20 +7712,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7731,7 +7742,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7752,7 +7763,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7761,7 +7772,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7772,7 +7783,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7787,7 +7798,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7802,7 +7813,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7816,7 +7827,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7825,7 +7836,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7839,7 +7850,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7860,7 +7871,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -7881,7 +7892,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -7902,7 +7913,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="145" t="s">
         <v>164</v>
       </c>
@@ -7917,7 +7928,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -7938,7 +7949,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -7948,7 +7959,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -7962,7 +7973,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -7983,7 +7994,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="145" t="s">
         <v>165</v>
       </c>
@@ -7998,7 +8009,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8019,7 +8030,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8033,7 +8044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -8047,7 +8058,7 @@
       </c>
       <c r="F73" s="212"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8062,7 +8073,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8083,7 +8094,7 @@
         <v>0.8448760372568398</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8098,7 +8109,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8119,7 +8130,7 @@
         <v>0.18023840312844694</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8134,7 +8145,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8155,7 +8166,7 @@
         <v>1.7912194354438221E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8176,7 +8187,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8200,7 +8211,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8220,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8241,7 +8252,7 @@
         <v>-7.3026634739724955E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8252,7 +8263,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8273,7 +8284,7 @@
         <v>-5.4769976054793723E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="94" t="s">
         <v>174</v>
       </c>
@@ -8288,7 +8299,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="93" t="s">
         <v>175</v>
       </c>
@@ -8308,11 +8319,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8322,7 +8333,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
@@ -8333,7 +8344,7 @@
       <c r="G90" s="94"/>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
@@ -8346,11 +8357,11 @@
       <c r="E91" s="211"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.9039894665116953E-2</v>
+        <v>-1.8957598695893682E-2</v>
       </c>
       <c r="H91" s="195"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
@@ -8367,14 +8378,14 @@
       </c>
       <c r="F92" s="193">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>-13.218061303086122</v>
+        <v>-13.223606766620662</v>
       </c>
       <c r="H92" s="195"/>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H93" s="24"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8392,25 +8403,25 @@
       </c>
       <c r="H94" s="24"/>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>-1230435.7494098877</v>
+        <v>-1229820.1904636996</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>-9.4299297858500779</v>
+        <v>-9.4252122070212838</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>-7.14765750311002</v>
+        <v>-7.1440816930586308</v>
       </c>
       <c r="H95" s="24"/>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
@@ -8426,17 +8437,17 @@
       <c r="F96" s="137"/>
       <c r="H96" s="24"/>
     </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>1320663.8335168522</v>
+        <v>1319449.577824879</v>
       </c>
       <c r="D97" s="197">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>10.121428304361517</v>
+        <v>10.11212237682904</v>
       </c>
       <c r="E97" s="198"/>
       <c r="F97" s="156" t="s">
@@ -8444,32 +8455,32 @@
       </c>
       <c r="H97" s="24"/>
     </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>90228.084106964525</v>
+        <v>89629.387361179339</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>0.69149851851143995</v>
+        <v>0.68691016980775599</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>2.3473500452370413</v>
+        <v>2.3490774434310842</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>0.8643731481393</v>
+        <v>0.85863771225969499</v>
       </c>
       <c r="H98" s="24"/>
     </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H99" s="24"/>
     </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8486,7 +8497,7 @@
       </c>
       <c r="H100" s="24"/>
     </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
@@ -8510,10 +8521,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H102" s="24"/>
     </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
         <v>225</v>
       </c>
@@ -8530,28 +8541,28 @@
       </c>
       <c r="H103" s="24"/>
     </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>45114.042053482262</v>
+        <v>44814.693680589669</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>0.34574925925571998</v>
+        <v>0.34345508490387799</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>0.25931194444178995</v>
+        <v>0.2575913136779085</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>0.43218657406965</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.42931885612984749</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>

--- a/financial_models/opportunities/1405.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A525B535-7C08-964F-A225-A39443368E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B78799B-FFEB-403A-A3A8-1A119599E149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="740" windowWidth="12700" windowHeight="7640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="12691" windowHeight="7643" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -828,18 +817,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1292,7 +1281,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="215">
@@ -1348,8 +1337,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1372,14 +1361,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1404,7 +1393,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1421,7 +1410,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1429,7 +1418,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1476,7 +1465,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1550,7 +1539,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1626,7 +1615,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1637,16 +1626,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1706,7 +1695,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1715,10 +1704,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1733,23 +1722,23 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1763,7 +1752,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1776,20 +1765,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2112,19 +2101,19 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2133,7 +2122,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2148,7 +2137,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>217</v>
       </c>
@@ -2167,7 +2156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="35" t="s">
         <v>218</v>
       </c>
@@ -2185,7 +2174,7 @@
       <c r="H4" s="207"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2205,7 +2194,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2229,7 +2218,7 @@
       <c r="H6" s="200"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>215</v>
       </c>
@@ -2244,15 +2233,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="170">
-        <v>1.0866400003433228</v>
+        <v>1.0845636924107869</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="177" t="s">
         <v>213</v>
       </c>
@@ -2260,7 +2249,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2271,7 +2260,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
@@ -2285,7 +2274,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2297,8 +2286,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
@@ -2309,7 +2298,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2320,7 +2309,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="146" t="s">
         <v>208</v>
       </c>
@@ -2334,7 +2323,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>201</v>
       </c>
@@ -2343,8 +2332,8 @@
       </c>
       <c r="D17" s="185"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="182" t="s">
         <v>204</v>
       </c>
@@ -2357,7 +2346,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="174" t="s">
         <v>185</v>
       </c>
@@ -2368,7 +2357,7 @@
       <c r="F20" s="94"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="174" t="s">
         <v>186</v>
       </c>
@@ -2379,7 +2368,7 @@
       <c r="F21" s="94"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="174" t="s">
         <v>187</v>
       </c>
@@ -2391,7 +2380,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="174" t="s">
         <v>188</v>
       </c>
@@ -2404,10 +2393,10 @@
       </c>
       <c r="G23" s="184">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.68515412223032834</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.68646579341105385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="174" t="s">
         <v>189</v>
       </c>
@@ -2420,10 +2409,10 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>-1.8957598695893682E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1.8921375280096655E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="174" t="s">
         <v>214</v>
       </c>
@@ -2439,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="176" t="s">
         <v>191</v>
       </c>
@@ -2455,8 +2444,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2474,919 +2463,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>2.3490774434310842</v>
+        <v>2.3579660679208017</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>0.85863771225969499</v>
+        <v>0.85482598993398451</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>0.68691016980775599</v>
+        <v>0.68386079194718763</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3450,7 +3439,7 @@
       <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3458,7 +3447,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3466,7 +3455,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3483,7 +3472,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3509,13 +3498,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="139" t="s">
         <v>146</v>
@@ -3565,7 +3554,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3587,7 +3576,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3638,7 +3627,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3662,7 +3651,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3713,7 +3702,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3737,7 +3726,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3788,7 +3777,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3806,7 +3795,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3857,7 +3846,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3875,7 +3864,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3893,7 +3882,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3911,7 +3900,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3933,7 +3922,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -3951,7 +3940,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4002,7 +3991,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4053,7 +4042,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4104,7 +4093,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4155,7 +4144,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4206,7 +4195,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="138" t="s">
         <v>147</v>
@@ -4257,7 +4246,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4308,7 +4297,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4329,7 +4318,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4350,7 +4339,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4371,7 +4360,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4392,7 +4381,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4413,7 +4402,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4434,7 +4423,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4455,7 +4444,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4506,7 +4495,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4527,7 +4516,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4548,7 +4537,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4569,7 +4558,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4620,7 +4609,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>171</v>
@@ -4671,7 +4660,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4689,7 +4678,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4740,7 +4729,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4791,7 +4780,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4842,7 +4831,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4893,7 +4882,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -4944,7 +4933,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -4995,7 +4984,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5046,7 +5035,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5064,7 +5053,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5115,7 +5104,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5166,7 +5155,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5183,7 +5172,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5233,7 +5222,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5283,7 +5272,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5333,7 +5322,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5383,1260 +5372,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6675,7 +6664,7 @@
       <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -6684,11 +6673,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6704,7 +6693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6727,7 +6716,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6743,7 +6732,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6758,18 +6747,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>4056058.9676495078</v>
+        <v>4048308.8135904786</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.68469440851835828</v>
+        <v>0.68529688173907477</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6783,14 +6772,14 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>33.778430494636247</v>
+        <v>33.649468891626206</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -6806,13 +6795,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6831,7 +6820,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6856,7 +6845,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6881,7 +6870,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6904,7 +6893,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -6927,7 +6916,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -6948,7 +6937,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -6971,7 +6960,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -6989,7 +6978,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7009,7 +6998,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7028,7 +7017,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7048,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7070,7 +7059,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7089,7 +7078,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7111,7 +7100,7 @@
         <v>2867112</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7120,7 +7109,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7142,7 +7131,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7171,7 +7160,7 @@
         <v>2.0221788132366587</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7204,7 +7193,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7237,7 +7226,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7266,7 +7255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7278,7 +7267,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7297,7 +7286,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7319,7 +7308,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7339,7 +7328,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7362,7 +7351,7 @@
       <c r="I33" s="144"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7387,7 +7376,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7408,7 +7397,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7432,7 +7421,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7454,7 +7443,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7473,7 +7462,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7490,7 +7479,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7509,7 +7498,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7528,7 +7517,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7552,7 +7541,7 @@
         <v>153937</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7561,7 +7550,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7580,7 +7569,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7599,7 +7588,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7629,7 +7618,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7659,7 +7648,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7685,7 +7674,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7712,20 +7701,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7742,7 +7731,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7763,7 +7752,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7772,7 +7761,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7783,7 +7772,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7798,7 +7787,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7813,7 +7802,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7827,7 +7816,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7836,7 +7825,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7850,7 +7839,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7871,7 +7860,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -7892,7 +7881,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -7913,7 +7902,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="145" t="s">
         <v>164</v>
       </c>
@@ -7928,7 +7917,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -7949,7 +7938,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -7959,7 +7948,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -7973,7 +7962,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -7994,7 +7983,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="145" t="s">
         <v>165</v>
       </c>
@@ -8009,7 +7998,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8030,7 +8019,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8044,7 +8033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -8058,7 +8047,7 @@
       </c>
       <c r="F73" s="212"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8073,7 +8062,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8094,7 +8083,7 @@
         <v>0.8448760372568398</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8109,7 +8098,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8130,7 +8119,7 @@
         <v>0.18023840312844694</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8145,7 +8134,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8166,7 +8155,7 @@
         <v>1.7912194354438221E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8187,7 +8176,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8211,7 +8200,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8231,7 +8220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8252,7 +8241,7 @@
         <v>-7.3026634739724955E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8263,7 +8252,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8284,7 +8273,7 @@
         <v>-5.4769976054793723E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>174</v>
       </c>
@@ -8299,7 +8288,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>175</v>
       </c>
@@ -8319,11 +8308,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8333,7 +8322,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
@@ -8344,7 +8333,7 @@
       <c r="G90" s="94"/>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
@@ -8357,11 +8346,11 @@
       <c r="E91" s="211"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.8957598695893682E-2</v>
+        <v>-1.8921375280096655E-2</v>
       </c>
       <c r="H91" s="195"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
@@ -8378,14 +8367,14 @@
       </c>
       <c r="F92" s="193">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>-13.223606766620662</v>
+        <v>-13.226048249169407</v>
       </c>
       <c r="H92" s="195"/>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H93" s="24"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8403,25 +8392,25 @@
       </c>
       <c r="H94" s="24"/>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>-1229820.1904636996</v>
+        <v>-1227696.9281794557</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>-9.4252122070212838</v>
+        <v>-9.4089397488559836</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>-7.1440816930586308</v>
+        <v>-7.1317475654096869</v>
       </c>
       <c r="H95" s="24"/>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
@@ -8437,17 +8426,17 @@
       <c r="F96" s="137"/>
       <c r="H96" s="24"/>
     </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>1319449.577824879</v>
+        <v>1316928.4267314593</v>
       </c>
       <c r="D97" s="197">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>10.11212237682904</v>
+        <v>10.092800540803172</v>
       </c>
       <c r="E97" s="198"/>
       <c r="F97" s="156" t="s">
@@ -8455,32 +8444,32 @@
       </c>
       <c r="H97" s="24"/>
     </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>89629.387361179339</v>
+        <v>89231.498552003643</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>0.68691016980775599</v>
+        <v>0.68386079194718763</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>2.3490774434310842</v>
+        <v>2.3579660679208017</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>0.85863771225969499</v>
+        <v>0.85482598993398451</v>
       </c>
       <c r="H98" s="24"/>
     </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H99" s="24"/>
     </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8497,7 +8486,7 @@
       </c>
       <c r="H100" s="24"/>
     </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
@@ -8521,10 +8510,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H102" s="24"/>
     </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>225</v>
       </c>
@@ -8541,28 +8530,28 @@
       </c>
       <c r="H103" s="24"/>
     </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>44814.693680589669</v>
+        <v>44615.749276001821</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>0.34345508490387799</v>
+        <v>0.34193039597359381</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>0.2575913136779085</v>
+        <v>0.25644779698019537</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>0.42931885612984749</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.42741299496699225</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>

--- a/financial_models/opportunities/1405.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B78799B-FFEB-403A-A3A8-1A119599E149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA5C2F32-434E-4B27-8FB5-87E8C73966E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="12691" windowHeight="7643" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2150,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="169">
-        <v>73.400001525878906</v>
+        <v>72.5</v>
       </c>
       <c r="H3" s="171" t="s">
         <v>2</v>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="G5" s="199">
         <f>G3*G4/1000000</f>
-        <v>9577.3762832996745</v>
+        <v>9459.9423174999993</v>
       </c>
       <c r="H5" s="199"/>
       <c r="I5" s="38"/>
@@ -2233,7 +2233,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="170">
-        <v>1.0845636924107869</v>
+        <v>1.0842636823654175</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="G23" s="184">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.68646579341105385</v>
+        <v>0.67823623629034402</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>-1.8921375280096655E-2</v>
+        <v>-1.9150962745846989E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2469,16 +2469,16 @@
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>2.3579660679208017</v>
+        <v>2.3684939271736534</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>0.85482598993398451</v>
+        <v>0.86834076286803785</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>0.68386079194718763</v>
+        <v>0.69467261029443028</v>
       </c>
       <c r="H29" s="94"/>
     </row>
@@ -6754,11 +6754,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>4048308.8135904786</v>
+        <v>4047188.9777345182</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.68529688173907477</v>
+        <v>0.68538393434598766</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6779,7 +6779,7 @@
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>33.649468891626206</v>
+        <v>33.630855356055292</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -8346,7 +8346,7 @@
       <c r="E91" s="211"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.8921375280096655E-2</v>
+        <v>-1.9150962745846989E-2</v>
       </c>
       <c r="H91" s="195"/>
     </row>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="F92" s="193">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>-13.226048249169407</v>
+        <v>-13.21057999838969</v>
       </c>
       <c r="H92" s="195"/>
     </row>
@@ -8398,15 +8398,15 @@
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>-1227696.9281794557</v>
+        <v>-1225921.8945403465</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>-9.4089397488559836</v>
+        <v>-9.3953360782926474</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>-7.1317475654096869</v>
+        <v>-7.1214363138754742</v>
       </c>
       <c r="H95" s="24"/>
     </row>
@@ -8432,11 +8432,11 @@
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>1316928.4267314593</v>
+        <v>1316564.1403738977</v>
       </c>
       <c r="D97" s="197">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>10.092800540803172</v>
+        <v>10.09000868858708</v>
       </c>
       <c r="E97" s="198"/>
       <c r="F97" s="156" t="s">
@@ -8450,19 +8450,19 @@
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>89231.498552003643</v>
+        <v>90642.245833551278</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>0.68386079194718763</v>
+        <v>0.69467261029443028</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>2.3579660679208017</v>
+        <v>2.3684939271736534</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>0.85482598993398451</v>
+        <v>0.86834076286803785</v>
       </c>
       <c r="H98" s="24"/>
     </row>
@@ -8536,19 +8536,19 @@
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>44615.749276001821</v>
+        <v>45321.122916775639</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>0.34193039597359381</v>
+        <v>0.34733630514721514</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>0.25644779698019537</v>
+        <v>0.26050222886041136</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>0.42741299496699225</v>
+        <v>0.43417038143401893</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">

--- a/financial_models/opportunities/1405.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F0C5B5-5862-4A27-8E65-92743F51BE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{034300FC-4768-4CEC-BC12-4F701C7D86FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="12689" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1947,6 +1947,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1988,9 +1991,6 @@
     </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2415,17 +2415,17 @@
       <c r="B3" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="245" t="str">
+      <c r="C3" s="246" t="str">
         <f>Inputs!C4</f>
         <v>1405.HK</v>
       </c>
-      <c r="D3" s="246"/>
+      <c r="D3" s="247"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>72.5</v>
+        <v>73</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2435,40 +2435,40 @@
       <c r="B4" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="247" t="str">
+      <c r="C4" s="248" t="str">
         <f>Inputs!C5</f>
         <v>達勢股份</v>
       </c>
-      <c r="D4" s="248"/>
+      <c r="D4" s="249"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="251">
+      <c r="G4" s="252">
         <f>Inputs!C10</f>
         <v>130481963</v>
       </c>
-      <c r="H4" s="251"/>
+      <c r="H4" s="252"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="249">
+      <c r="C5" s="250">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="250"/>
+      <c r="D5" s="251"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="243">
+      <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>9459.9423174999993</v>
-      </c>
-      <c r="H5" s="243"/>
+        <v>9525.1832990000003</v>
+      </c>
+      <c r="H5" s="244"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -2491,11 +2491,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="244" t="str">
+      <c r="G6" s="245" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="244"/>
+      <c r="H6" s="245"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2515,7 +2515,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.08</v>
+        <v>1.0790773232777913</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2564,7 +2564,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="178">
-        <v>7.0000000000000007E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="111"/>
     </row>
@@ -2610,7 +2610,7 @@
         <v>196</v>
       </c>
       <c r="C17" s="181">
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D17" s="182"/>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-1.1239203837777524E-2</v>
+        <v>-1.1152686764276732E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2749,11 +2749,11 @@
         <f>Fin_Analysis!F96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="G28" s="241" t="str">
+      <c r="G28" s="242" t="str">
         <f>Fin_Analysis!H96</f>
         <v>Base Case</v>
       </c>
-      <c r="H28" s="241"/>
+      <c r="H28" s="242"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -2772,11 +2772,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="242">
+      <c r="G29" s="243">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="242"/>
+      <c r="H29" s="243"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3769,7 +3769,7 @@
       <c r="B5" s="142" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="241" t="s">
         <v>248</v>
       </c>
       <c r="E5" s="231">
@@ -9832,11 +9832,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="252">
+      <c r="D56" s="253">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="250"/>
+      <c r="E56" s="251"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -9847,11 +9847,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="251">
+      <c r="D57" s="252">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
-      <c r="E57" s="250"/>
+      <c r="E57" s="251"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -9863,11 +9863,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="251">
+      <c r="D58" s="252">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="E58" s="250"/>
+      <c r="E58" s="251"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -10081,19 +10081,19 @@
       <c r="B72" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="255">
+      <c r="C72" s="256">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="255"/>
-      <c r="E72" s="253" t="s">
+      <c r="D72" s="256"/>
+      <c r="E72" s="254" t="s">
         <v>226</v>
       </c>
-      <c r="F72" s="253"/>
-      <c r="H72" s="253" t="s">
+      <c r="F72" s="254"/>
+      <c r="H72" s="254" t="s">
         <v>225</v>
       </c>
-      <c r="I72" s="253"/>
+      <c r="I72" s="254"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -10103,18 +10103,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="254" t="s">
+      <c r="C73" s="255" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="254"/>
-      <c r="E73" s="256" t="s">
+      <c r="D73" s="255"/>
+      <c r="E73" s="257" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="254"/>
-      <c r="H73" s="256" t="s">
+      <c r="F73" s="255"/>
+      <c r="H73" s="257" t="s">
         <v>104</v>
       </c>
-      <c r="I73" s="254"/>
+      <c r="I73" s="255"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10469,17 +10469,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.1239203837777524E-2</v>
+        <v>-1.1152686764276732E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.1239203837777524E-2</v>
+        <v>-1.1152686764276732E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.1239203837777524E-2</v>
+        <v>-1.1152686764276732E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10560,15 +10560,15 @@
       <c r="D92" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E92" s="253" t="s">
+      <c r="E92" s="254" t="s">
         <v>226</v>
       </c>
-      <c r="F92" s="253"/>
+      <c r="F92" s="254"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="253" t="s">
+      <c r="H92" s="254" t="s">
         <v>225</v>
       </c>
-      <c r="I92" s="253"/>
+      <c r="I92" s="254"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10578,7 +10578,7 @@
       </c>
       <c r="C93" s="137">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D93" s="206">
         <v>5</v>
@@ -10588,14 +10588,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>-8.9128378305665894</v>
+        <v>-9.9074865580917351</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>-8.9128378305665894</v>
+        <v>-9.9074865580917351</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10660,19 +10660,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-854813.68112901843</v>
+        <v>-985354.74588243593</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>-4.7857560640317249</v>
+        <v>-5.3152886727218016</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>-6.551201878600021</v>
+        <v>-7.5516548282036187</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>-6.551201878600021</v>
+        <v>-7.5516548282036187</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10720,7 +10720,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-854813.68112901843</v>
+        <v>-985354.74588243593</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>

--- a/financial_models/opportunities/1405.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{034300FC-4768-4CEC-BC12-4F701C7D86FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4A3024D-C89D-40E3-8655-2C3642104097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="12689" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2425,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>73</v>
+        <v>74.300003051757813</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>9525.1832990000003</v>
+        <v>9694.8102490993497</v>
       </c>
       <c r="H5" s="244"/>
       <c r="I5" s="38"/>
@@ -2515,7 +2515,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0790773232777913</v>
+        <v>1.0758796532948811</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-1.1152686764276732E-2</v>
+        <v>-1.0925080900674069E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10469,17 +10469,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.1152686764276732E-2</v>
+        <v>-1.0925080900674069E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.1152686764276732E-2</v>
+        <v>-1.0925080900674069E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.1152686764276732E-2</v>
+        <v>-1.0925080900674069E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10588,14 +10588,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>-9.9074865580917351</v>
+        <v>-9.9188939833014462</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>-9.9074865580917351</v>
+        <v>-9.9188939833014462</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10660,19 +10660,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-985354.74588243593</v>
+        <v>-983565.97750242206</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>-5.3152886727218016</v>
+        <v>-5.305639538389074</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>-7.5516548282036187</v>
+        <v>-7.5379458960348575</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>-7.5516548282036187</v>
+        <v>-7.5379458960348575</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10720,7 +10720,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-985354.74588243593</v>
+        <v>-983565.97750242206</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>

--- a/financial_models/opportunities/1405.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4A3024D-C89D-40E3-8655-2C3642104097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9164B538-FB63-4617-B38B-83FE8ECACFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2425,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>74.300003051757813</v>
+        <v>72.199996948242188</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>9694.8102490993497</v>
+        <v>9420.79733040065</v>
       </c>
       <c r="H5" s="244"/>
       <c r="I5" s="38"/>
@@ -2515,7 +2515,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0758796532948811</v>
+        <v>1.0742770036061604</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-1.0925080900674069E-2</v>
+        <v>-1.1226099800940748E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10469,17 +10469,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0925080900674069E-2</v>
+        <v>-1.1226099800940748E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0925080900674069E-2</v>
+        <v>-1.1226099800940748E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.0925080900674069E-2</v>
+        <v>-1.1226099800940748E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10588,14 +10588,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>-9.9188939833014462</v>
+        <v>-9.9038093944109225</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>-9.9188939833014462</v>
+        <v>-9.9038093944109225</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10660,19 +10660,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-983565.97750242206</v>
+        <v>-980607.26741240942</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>-5.305639538389074</v>
+        <v>-5.2896793998775076</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>-7.5379458960348575</v>
+        <v>-7.5152706540168266</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>-7.5379458960348575</v>
+        <v>-7.5152706540168266</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10720,7 +10720,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-983565.97750242206</v>
+        <v>-980607.26741240942</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>

--- a/financial_models/opportunities/1405.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1405.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9164B538-FB63-4617-B38B-83FE8ECACFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF25AD2C-BD27-9C41-9AD1-D35ADC64CDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -896,18 +907,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1374,7 +1385,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="258">
@@ -1430,8 +1441,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1454,14 +1465,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1491,7 +1502,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1596,7 +1607,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1624,7 +1635,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1680,13 +1691,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1728,7 +1739,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1761,16 +1772,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1791,7 +1802,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1816,10 +1827,10 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1828,10 +1839,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1848,13 +1859,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1866,13 +1877,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1910,7 +1921,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1919,10 +1930,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1956,7 +1967,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1970,7 +1981,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1983,20 +1994,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -2375,19 +2386,19 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -2396,7 +2407,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2411,7 +2422,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>211</v>
       </c>
@@ -2425,13 +2436,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>72.199996948242188</v>
+        <v>71.800003051757812</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>212</v>
       </c>
@@ -2451,7 +2462,7 @@
       <c r="H4" s="252"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>175</v>
       </c>
@@ -2466,13 +2477,13 @@
       </c>
       <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>9420.79733040065</v>
+        <v>9368.6053415993501</v>
       </c>
       <c r="H5" s="244"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
@@ -2498,7 +2509,7 @@
       <c r="H6" s="245"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="86" t="s">
         <v>209</v>
       </c>
@@ -2515,15 +2526,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0742770036061604</v>
+        <v>1.074550986289978</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="140" t="s">
         <v>207</v>
       </c>
@@ -2531,7 +2542,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>190</v>
       </c>
@@ -2542,7 +2553,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="123" t="s">
         <v>194</v>
       </c>
@@ -2556,7 +2567,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="87" t="s">
         <v>142</v>
       </c>
@@ -2568,8 +2579,8 @@
       </c>
       <c r="F12" s="111"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>191</v>
       </c>
@@ -2580,7 +2591,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>202</v>
       </c>
@@ -2591,7 +2602,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="123" t="s">
         <v>203</v>
       </c>
@@ -2605,7 +2616,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="87" t="s">
         <v>196</v>
       </c>
@@ -2614,8 +2625,8 @@
       </c>
       <c r="D17" s="182"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="143" t="s">
         <v>199</v>
       </c>
@@ -2630,7 +2641,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="138" t="s">
         <v>181</v>
       </c>
@@ -2642,10 +2653,10 @@
         <v>231</v>
       </c>
       <c r="G20" s="178">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="138" t="s">
         <v>182</v>
       </c>
@@ -2656,7 +2667,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="138" t="s">
         <v>183</v>
       </c>
@@ -2668,7 +2679,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="138" t="s">
         <v>184</v>
       </c>
@@ -2684,7 +2695,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="138" t="s">
         <v>185</v>
       </c>
@@ -2697,10 +2708,10 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-1.1226099800940748E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>-1.1291518834940829E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="138" t="s">
         <v>208</v>
       </c>
@@ -2716,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="139" t="s">
         <v>187</v>
       </c>
@@ -2732,8 +2743,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>7</v>
@@ -2755,7 +2766,7 @@
       </c>
       <c r="H28" s="242"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="87" t="s">
         <v>180</v>
       </c>
@@ -2778,900 +2789,900 @@
       </c>
       <c r="H29" s="243"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -3737,20 +3748,20 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.06640625" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B4" s="142" t="s">
         <v>211</v>
       </c>
@@ -3765,7 +3776,7 @@
         <v>CNY</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="B5" s="142" t="s">
         <v>212</v>
       </c>
@@ -3780,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="142" t="s">
         <v>175</v>
       </c>
@@ -3795,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B7" s="141" t="s">
         <v>4</v>
       </c>
@@ -3803,7 +3814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="141" t="s">
         <v>236</v>
       </c>
@@ -3811,7 +3822,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="141" t="s">
         <v>237</v>
       </c>
@@ -3819,7 +3830,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="141" t="s">
         <v>238</v>
       </c>
@@ -3827,7 +3838,7 @@
         <v>130481963</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B11" s="141" t="s">
         <v>239</v>
       </c>
@@ -3835,7 +3846,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="227" t="s">
         <v>10</v>
       </c>
@@ -3843,7 +3854,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="227" t="s">
         <v>11</v>
       </c>
@@ -3851,7 +3862,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="227" t="s">
         <v>241</v>
       </c>
@@ -3859,7 +3870,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="227" t="s">
         <v>240</v>
       </c>
@@ -3867,7 +3878,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="234" t="s">
         <v>98</v>
       </c>
@@ -3876,7 +3887,7 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B18" s="116" t="s">
         <v>144</v>
       </c>
@@ -3925,7 +3936,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B19" s="94" t="s">
         <v>12</v>
       </c>
@@ -3945,7 +3956,7 @@
       <c r="L19" s="152"/>
       <c r="M19" s="152"/>
     </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B20" s="97" t="s">
         <v>109</v>
       </c>
@@ -3965,7 +3976,7 @@
       <c r="L20" s="153"/>
       <c r="M20" s="153"/>
     </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
@@ -3985,7 +3996,7 @@
       <c r="L21" s="153"/>
       <c r="M21" s="153"/>
     </row>
-    <row r="22" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B22" s="97" t="s">
         <v>108</v>
       </c>
@@ -4001,7 +4012,7 @@
       <c r="L22" s="153"/>
       <c r="M22" s="153"/>
     </row>
-    <row r="23" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B23" s="97" t="s">
         <v>110</v>
       </c>
@@ -4017,7 +4028,7 @@
       <c r="L23" s="153"/>
       <c r="M23" s="153"/>
     </row>
-    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B24" s="97" t="s">
         <v>111</v>
       </c>
@@ -4033,7 +4044,7 @@
       <c r="L24" s="153"/>
       <c r="M24" s="153"/>
     </row>
-    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="97" t="s">
         <v>113</v>
       </c>
@@ -4049,7 +4060,7 @@
       <c r="L25" s="153"/>
       <c r="M25" s="153"/>
     </row>
-    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="97" t="s">
         <v>129</v>
       </c>
@@ -4069,7 +4080,7 @@
       <c r="L26" s="153"/>
       <c r="M26" s="153"/>
     </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B27" s="99" t="s">
         <v>114</v>
       </c>
@@ -4085,7 +4096,7 @@
       <c r="L27" s="153"/>
       <c r="M27" s="153"/>
     </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="94" t="s">
         <v>15</v>
       </c>
@@ -4101,7 +4112,7 @@
       <c r="L28" s="153"/>
       <c r="M28" s="153"/>
     </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>121</v>
       </c>
@@ -4117,7 +4128,7 @@
       <c r="L29" s="153"/>
       <c r="M29" s="153"/>
     </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B30" s="94" t="s">
         <v>159</v>
       </c>
@@ -4133,7 +4144,7 @@
       <c r="L30" s="153"/>
       <c r="M30" s="153"/>
     </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="94" t="s">
         <v>16</v>
       </c>
@@ -4149,7 +4160,7 @@
       <c r="L31" s="153"/>
       <c r="M31" s="153"/>
     </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B32" s="94" t="s">
         <v>120</v>
       </c>
@@ -4165,7 +4176,7 @@
       <c r="L32" s="153"/>
       <c r="M32" s="153"/>
     </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B33" s="94" t="s">
         <v>17</v>
       </c>
@@ -4181,7 +4192,7 @@
       <c r="L33" s="153"/>
       <c r="M33" s="153"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B34" s="94" t="s">
         <v>18</v>
       </c>
@@ -4197,7 +4208,7 @@
       <c r="L34" s="153"/>
       <c r="M34" s="153"/>
     </row>
-    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="94" t="s">
         <v>148</v>
       </c>
@@ -4213,7 +4224,7 @@
       <c r="L35" s="153"/>
       <c r="M35" s="153"/>
     </row>
-    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
@@ -4229,7 +4240,7 @@
       <c r="L36" s="153"/>
       <c r="M36" s="153"/>
     </row>
-    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B37" s="94" t="s">
         <v>147</v>
       </c>
@@ -4245,7 +4256,7 @@
       <c r="L37" s="153"/>
       <c r="M37" s="153"/>
     </row>
-    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="203" t="s">
         <v>33</v>
       </c>
@@ -4259,7 +4270,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
@@ -4269,7 +4280,7 @@
       </c>
       <c r="E40" s="113"/>
     </row>
-    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>146</v>
       </c>
@@ -4279,7 +4290,7 @@
       </c>
       <c r="E41" s="113"/>
     </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>121</v>
       </c>
@@ -4290,7 +4301,7 @@
       </c>
       <c r="E42" s="113"/>
     </row>
-    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
@@ -4300,7 +4311,7 @@
       </c>
       <c r="E43" s="113"/>
     </row>
-    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
@@ -4310,7 +4321,7 @@
       </c>
       <c r="E44" s="113"/>
     </row>
-    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>170</v>
       </c>
@@ -4321,7 +4332,7 @@
       </c>
       <c r="E45" s="113"/>
     </row>
-    <row r="46" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>122</v>
       </c>
@@ -4331,7 +4342,7 @@
       </c>
       <c r="E46" s="113"/>
     </row>
-    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
@@ -4342,7 +4353,7 @@
       </c>
       <c r="E47" s="113"/>
     </row>
-    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
@@ -4355,7 +4366,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>124</v>
       </c>
@@ -4367,7 +4378,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
@@ -4378,7 +4389,7 @@
       </c>
       <c r="E50" s="113"/>
     </row>
-    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="35" t="s">
         <v>51</v>
       </c>
@@ -4389,7 +4400,7 @@
       </c>
       <c r="E51" s="113"/>
     </row>
-    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>61</v>
       </c>
@@ -4400,7 +4411,7 @@
       </c>
       <c r="E52" s="113"/>
     </row>
-    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>63</v>
       </c>
@@ -4411,7 +4422,7 @@
       </c>
       <c r="E53" s="113"/>
     </row>
-    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>65</v>
       </c>
@@ -4422,7 +4433,7 @@
       </c>
       <c r="E54" s="113"/>
     </row>
-    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>171</v>
       </c>
@@ -4433,7 +4444,7 @@
       </c>
       <c r="E55" s="113"/>
     </row>
-    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
@@ -4443,7 +4454,7 @@
       </c>
       <c r="E56" s="113"/>
     </row>
-    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
@@ -4455,7 +4466,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>72</v>
       </c>
@@ -4467,7 +4478,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>49</v>
       </c>
@@ -4480,7 +4491,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>123</v>
       </c>
@@ -4491,7 +4502,7 @@
       </c>
       <c r="E60" s="113"/>
     </row>
-    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>73</v>
       </c>
@@ -4502,7 +4513,7 @@
       </c>
       <c r="E61" s="113"/>
     </row>
-    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>74</v>
       </c>
@@ -4512,7 +4523,7 @@
       </c>
       <c r="E62" s="113"/>
     </row>
-    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
         <v>75</v>
       </c>
@@ -4523,7 +4534,7 @@
       </c>
       <c r="E63" s="113"/>
     </row>
-    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
         <v>76</v>
       </c>
@@ -4533,100 +4544,100 @@
       </c>
       <c r="E64" s="113"/>
     </row>
-    <row r="65" spans="2:3" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B65" s="203" t="s">
         <v>37</v>
       </c>
       <c r="C65" s="201"/>
     </row>
-    <row r="66" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C66" s="59"/>
     </row>
-    <row r="67" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C67" s="59"/>
     </row>
-    <row r="68" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="59"/>
     </row>
-    <row r="69" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B69" s="86" t="s">
         <v>43</v>
       </c>
       <c r="C69" s="121"/>
     </row>
-    <row r="70" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B70" s="80" t="s">
         <v>16</v>
       </c>
       <c r="C70" s="83"/>
     </row>
-    <row r="71" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C71" s="59"/>
     </row>
-    <row r="72" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B72" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C72" s="59"/>
     </row>
-    <row r="73" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B74" s="86" t="s">
         <v>67</v>
       </c>
       <c r="C74" s="121"/>
     </row>
-    <row r="75" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B75" s="80" t="s">
         <v>85</v>
       </c>
       <c r="C75" s="83"/>
     </row>
-    <row r="76" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B76" s="73" t="s">
         <v>242</v>
       </c>
       <c r="C76" s="59"/>
     </row>
-    <row r="77" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B77" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C77" s="59"/>
     </row>
-    <row r="78" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B78" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="81" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B81" s="20"/>
     </row>
-    <row r="85" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B85" s="20"/>
     </row>
-    <row r="86" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B86" s="20"/>
     </row>
-    <row r="87" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B87" s="20"/>
     </row>
   </sheetData>
@@ -4679,7 +4690,7 @@
       <selection pane="topRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -4687,7 +4698,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -4695,7 +4706,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -4720,7 +4731,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="104" t="s">
         <v>10</v>
@@ -4749,7 +4760,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="104" t="s">
         <v>11</v>
@@ -4771,7 +4782,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="116" t="s">
         <v>144</v>
@@ -4821,7 +4832,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>12</v>
@@ -4872,7 +4883,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>13</v>
@@ -4923,7 +4934,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>109</v>
@@ -4974,7 +4985,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>105</v>
@@ -5025,7 +5036,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>107</v>
@@ -5076,7 +5087,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="94" t="s">
         <v>100</v>
@@ -5127,7 +5138,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="97" t="s">
         <v>108</v>
@@ -5178,7 +5189,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="98" t="s">
         <v>106</v>
@@ -5229,7 +5240,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="97" t="s">
         <v>110</v>
@@ -5280,7 +5291,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="97" t="s">
         <v>111</v>
@@ -5331,7 +5342,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>113</v>
@@ -5382,7 +5393,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
         <v>129</v>
@@ -5433,7 +5444,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="99" t="s">
         <v>114</v>
@@ -5484,7 +5495,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="236" t="s">
         <v>216</v>
@@ -5535,7 +5546,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="236" t="s">
         <v>217</v>
@@ -5586,7 +5597,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="94" t="s">
         <v>115</v>
@@ -5637,7 +5648,7 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>116</v>
@@ -5688,7 +5699,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>117</v>
@@ -5739,7 +5750,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="102" t="s">
         <v>118</v>
@@ -5790,7 +5801,7 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="101" t="s">
         <v>138</v>
@@ -5841,7 +5852,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="115" t="s">
         <v>145</v>
@@ -5892,7 +5903,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>14</v>
@@ -5943,7 +5954,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>15</v>
@@ -5994,7 +6005,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>121</v>
@@ -6045,7 +6056,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>159</v>
@@ -6096,7 +6107,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>16</v>
@@ -6147,7 +6158,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>120</v>
@@ -6198,7 +6209,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>17</v>
@@ -6249,7 +6260,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>18</v>
@@ -6300,7 +6311,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>19</v>
@@ -6351,7 +6362,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>148</v>
@@ -6402,7 +6413,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>149</v>
@@ -6453,7 +6464,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>147</v>
@@ -6504,7 +6515,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>151</v>
@@ -6555,7 +6566,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
         <v>169</v>
@@ -6606,7 +6617,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>132</v>
@@ -6624,7 +6635,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>99</v>
@@ -6675,7 +6686,7 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
         <v>126</v>
@@ -6726,7 +6737,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>101</v>
@@ -6777,7 +6788,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>112</v>
@@ -6828,7 +6839,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>127</v>
@@ -6879,7 +6890,7 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>139</v>
@@ -6930,7 +6941,7 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>130</v>
@@ -6981,7 +6992,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="103" t="s">
         <v>160</v>
@@ -6999,7 +7010,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
         <v>157</v>
@@ -7050,7 +7061,7 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
         <v>158</v>
@@ -7101,7 +7112,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="103" t="s">
         <v>131</v>
@@ -7118,7 +7129,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>20</v>
@@ -7168,7 +7179,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>125</v>
@@ -7218,7 +7229,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>128</v>
@@ -7268,7 +7279,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>21</v>
@@ -7318,1260 +7329,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -8615,7 +8626,7 @@
       <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -8623,11 +8634,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -8643,7 +8654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -8667,7 +8678,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -8683,7 +8694,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -8698,7 +8709,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -8723,7 +8734,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -8746,13 +8757,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -8772,7 +8783,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
@@ -8797,7 +8808,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -8825,7 +8836,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>146</v>
       </c>
@@ -8853,7 +8864,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -8881,7 +8892,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -8909,7 +8920,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -8936,7 +8947,7 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>170</v>
       </c>
@@ -8958,7 +8969,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -8980,7 +8991,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -9001,7 +9012,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -9026,7 +9037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -9053,7 +9064,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -9074,7 +9085,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -9100,7 +9111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -9109,7 +9120,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -9131,7 +9142,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -9160,7 +9171,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -9193,7 +9204,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -9226,7 +9237,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="78" t="s">
         <v>15</v>
       </c>
@@ -9256,7 +9267,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -9268,7 +9279,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -9294,7 +9305,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -9321,7 +9332,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -9348,7 +9359,7 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>171</v>
       </c>
@@ -9378,7 +9389,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -9405,7 +9416,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -9431,7 +9442,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -9458,7 +9469,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -9485,7 +9496,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -9506,7 +9517,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -9527,7 +9538,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -9548,7 +9559,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -9569,7 +9580,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -9595,7 +9606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -9604,7 +9615,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -9623,7 +9634,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -9642,7 +9653,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -9672,7 +9683,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -9702,7 +9713,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="80" t="s">
         <v>84</v>
       </c>
@@ -9729,7 +9740,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -9756,20 +9767,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -9786,7 +9797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -9807,7 +9818,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -9816,7 +9827,7 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>161</v>
       </c>
@@ -9827,7 +9838,7 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -9842,7 +9853,7 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -9858,7 +9869,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -9873,7 +9884,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -9882,7 +9893,7 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>164</v>
       </c>
@@ -9896,7 +9907,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -9917,7 +9928,7 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>150</v>
       </c>
@@ -9938,7 +9949,7 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>152</v>
       </c>
@@ -9959,7 +9970,7 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="122" t="s">
         <v>162</v>
       </c>
@@ -9974,7 +9985,7 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>153</v>
       </c>
@@ -9995,7 +10006,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -10005,7 +10016,7 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>165</v>
       </c>
@@ -10019,7 +10030,7 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>151</v>
       </c>
@@ -10040,7 +10051,7 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="122" t="s">
         <v>163</v>
       </c>
@@ -10055,7 +10066,7 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>154</v>
       </c>
@@ -10076,7 +10087,7 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="107" t="s">
         <v>137</v>
@@ -10098,7 +10109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -10117,7 +10128,7 @@
       <c r="I73" s="255"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -10138,7 +10149,7 @@
       <c r="I74" s="218"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="105" t="s">
         <v>109</v>
       </c>
@@ -10168,7 +10179,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -10189,7 +10200,7 @@
       <c r="I76" s="219"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="105" t="s">
         <v>133</v>
       </c>
@@ -10219,7 +10230,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -10240,7 +10251,7 @@
       <c r="I78" s="219"/>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="105" t="s">
         <v>129</v>
       </c>
@@ -10270,7 +10281,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -10300,7 +10311,7 @@
       </c>
       <c r="K80" s="24"/>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -10331,7 +10342,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="73" t="s">
         <v>186</v>
       </c>
@@ -10361,7 +10372,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="106" t="s">
         <v>134</v>
       </c>
@@ -10391,7 +10402,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -10412,7 +10423,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="86" t="s">
         <v>176</v>
       </c>
@@ -10442,7 +10453,7 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="87" t="s">
         <v>172</v>
       </c>
@@ -10463,28 +10474,28 @@
       <c r="I86" s="218"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="87" t="s">
         <v>228</v>
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.1226099800940748E-2</v>
+        <v>-1.1291518834940829E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.1226099800940748E-2</v>
+        <v>-1.1291518834940829E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.1226099800940748E-2</v>
+        <v>-1.1291518834940829E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="86" t="s">
         <v>227</v>
       </c>
@@ -10514,7 +10525,7 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="87" t="s">
         <v>246</v>
       </c>
@@ -10535,11 +10546,11 @@
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="B91" s="107" t="s">
         <v>166</v>
@@ -10549,7 +10560,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="10" t="s">
         <v>167</v>
       </c>
@@ -10571,7 +10582,7 @@
       <c r="I92" s="254"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Required Return"</f>
         <v>CN Required Return</v>
@@ -10588,24 +10599,24 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>-9.9038093944109225</v>
+        <v>-9.9005335599813762</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>-9.9038093944109225</v>
+        <v>-9.9005335599813762</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C94" s="188">
         <f>Dashboard!G20</f>
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D94" s="147"/>
       <c r="E94" s="87" t="s">
@@ -10624,11 +10635,11 @@
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="B96" s="107" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -10654,30 +10665,30 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-980607.26741240942</v>
+        <v>-980532.92727166857</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>-5.2896793998775076</v>
+        <v>-3.4860656563568688</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>-7.5152706540168266</v>
+        <v>-7.5147009190202674</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>-7.5152706540168266</v>
+        <v>-7.5147009190202674</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="28" t="s">
         <v>155</v>
       </c>
@@ -10694,7 +10705,7 @@
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B99" s="106" t="s">
         <v>156</v>
       </c>
@@ -10714,13 +10725,13 @@
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-980607.26741240942</v>
+        <v>-980532.92727166857</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
@@ -10740,11 +10751,11 @@
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="10" t="s">
         <v>174</v>
       </c>
@@ -10768,7 +10779,7 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="1" t="s">
         <v>173</v>
       </c>
@@ -10794,11 +10805,11 @@
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="10" t="s">
         <v>214</v>
       </c>
@@ -10820,7 +10831,7 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>215</v>
       </c>
@@ -10846,10 +10857,10 @@
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="10" t="s">
         <v>177</v>
       </c>
